--- a/Meta_Vendedor.xlsx
+++ b/Meta_Vendedor.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -74,18 +74,6 @@
     <t>DEZ</t>
   </si>
   <si>
-    <t>ALDILETH</t>
-  </si>
-  <si>
-    <t>CUPOM MANUAL</t>
-  </si>
-  <si>
-    <t>DIRETORIA</t>
-  </si>
-  <si>
-    <t>GE ELSON LEONEL</t>
-  </si>
-  <si>
     <t>HC ALLAN</t>
   </si>
   <si>
@@ -131,15 +119,6 @@
     <t>HC WELLINGTON SILVA</t>
   </si>
   <si>
-    <t>ORÇAMENTO</t>
-  </si>
-  <si>
-    <t>VENDEDOR PADRAO</t>
-  </si>
-  <si>
-    <t>T CASA 01 - Matriz</t>
-  </si>
-  <si>
     <t>GE DANIEL MARTINS</t>
   </si>
   <si>
@@ -155,16 +134,16 @@
     <t>HC SUELLEN</t>
   </si>
   <si>
-    <t>HC VENDEDOR PADRAO</t>
-  </si>
-  <si>
     <t>HC WALLACE</t>
   </si>
   <si>
-    <t>T CASA 03 - Curuzu</t>
-  </si>
-  <si>
-    <t>T CASA 02 - Municipalidade</t>
+    <t>EMPRESA 03</t>
+  </si>
+  <si>
+    <t>EMPRESA 01</t>
+  </si>
+  <si>
+    <t>EMPRESA 02</t>
   </si>
 </sst>
 </file>
@@ -573,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,7 +572,7 @@
     <col min="15" max="41" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -637,643 +616,643 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.45">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="D2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="E2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="F2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="H2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="I2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="J2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="K2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="L2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="M2" s="5">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="N2" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.45">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="D3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="E3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="F3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="G3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="H3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="I3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="J3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="K3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="L3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="M3" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="N3" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.45">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="D4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="E4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="F4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="G4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="H4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="I4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="J4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="K4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="L4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="M4" s="5">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="N4" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.45">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="E5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="F5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="G5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="I5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="J5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="K5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="L5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="M5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="N5" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.45">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="D6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M6" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="N6" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="D7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M7" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="N7" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="D8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="J8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="K8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M8" s="5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="N8" s="5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.45">
+      <c r="C9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="K9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="L9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N9" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="D10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="E10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="F10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="G10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="H10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="I10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="J10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="K10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="L10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="M10" s="5">
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="N10" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.45">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="D11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="E11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="F11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="G11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="I11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="J11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="K11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="L11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="M11" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="N11" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="D12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="E12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="F12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="G12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="H12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="I12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="J12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="K12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="L12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="M12" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="N12" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="D13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="E13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="F13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="G13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="H13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="I13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="J13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="K13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="L13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="M13" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="N13" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="D14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="E14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="F14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="G14" s="5">
-        <v>160000</v>
+        <v>50000</v>
       </c>
       <c r="H14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="J14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="K14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="L14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="M14" s="5">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="N14" s="5">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="D15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="E15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="F15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="G15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="H15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="I15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="J15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="K15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="L15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="M15" s="5">
-        <v>150000</v>
+        <v>70000</v>
       </c>
       <c r="N15" s="5">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.45">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="D16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="E16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="F16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="G16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="H16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="I16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="J16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="K16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="L16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="M16" s="5">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="N16" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.45">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1281,43 +1260,43 @@
         <v>29</v>
       </c>
       <c r="C17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="D17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="E17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="F17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="H17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="I17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="J17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="K17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="L17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="M17" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="N17" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.45">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1325,43 +1304,43 @@
         <v>30</v>
       </c>
       <c r="C18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="D18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="E18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="F18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="H18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="I18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="J18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="K18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="L18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="M18" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="N18" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.45">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1369,43 +1348,43 @@
         <v>31</v>
       </c>
       <c r="C19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="D19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="E19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="F19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="H19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="I19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="J19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="K19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="L19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="M19" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="N19" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.45">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1413,40 +1392,40 @@
         <v>32</v>
       </c>
       <c r="C20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="D20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="E20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="F20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="H20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="I20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="J20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="K20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="L20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="M20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="N20" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1457,43 +1436,43 @@
         <v>33</v>
       </c>
       <c r="C21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="D21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="E21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="F21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="H21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="I21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="J21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="K21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="L21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="M21" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="N21" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.45">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1501,372 +1480,64 @@
         <v>34</v>
       </c>
       <c r="C22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="D22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="E22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="F22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="H22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="I22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="J22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="K22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="L22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="M22" s="5">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="N22" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.45">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="D23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="E23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="F23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="G23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="H23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="I23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="J23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="K23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="M23" s="5">
-        <v>90000</v>
-      </c>
-      <c r="N23" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="14.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="D24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="E24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="F24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="G24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="H24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="I24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="J24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="K24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="M24" s="5">
-        <v>90000</v>
-      </c>
-      <c r="N24" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.45">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="D25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="E25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="F25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="G25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="H25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="I25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="J25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="K25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="M25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="N25" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.45">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="D26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="E26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="F26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="G26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="H26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="I26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="J26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="K26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="L26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="M26" s="5">
-        <v>130000</v>
-      </c>
-      <c r="N26" s="5">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.45">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="D27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="E27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="F27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="G27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="H27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="I27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="J27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="K27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="M27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="N27" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.45">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="D28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="E28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="F28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="G28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="H28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="I28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="J28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="K28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="M28" s="5">
-        <v>90000</v>
-      </c>
-      <c r="N28" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.45">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="D29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="E29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="F29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="G29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="H29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="I29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="J29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="K29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="M29" s="5">
-        <v>90000</v>
-      </c>
-      <c r="N29" s="5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.45">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.45">
-      <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.45">
-      <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
